--- a/RNMDT.xlsx
+++ b/RNMDT.xlsx
@@ -394,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,16 +428,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>672227.5761293311</v>
+        <v>288775.29932742193</v>
       </c>
       <c r="D2">
-        <v>672195.9278057222</v>
+        <v>288709.3760417034</v>
       </c>
       <c r="E2">
-        <v>4.708199246642652e-5</v>
+        <v>0.00022833787604119627</v>
       </c>
       <c r="F2">
-        <v>0.3969089984893799</v>
+        <v>28.668041944503784</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -448,1376 +448,776 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>672270.9551431389</v>
+        <v>288107.5833547244</v>
       </c>
       <c r="D3">
-        <v>672195.9278055908</v>
+        <v>288709.3760427146</v>
       </c>
       <c r="E3">
-        <v>0.00011161528126631137</v>
+        <v>-0.002084423776736449</v>
       </c>
       <c r="F3">
-        <v>0.3969089984893799</v>
+        <v>28.668041944503784</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>672227.5761293311</v>
+        <v>312898.5023113793</v>
       </c>
       <c r="D4">
-        <v>672195.9278057222</v>
+        <v>312852.35352798935</v>
       </c>
       <c r="E4">
-        <v>4.708199246642652e-5</v>
+        <v>0.00014750978494977465</v>
       </c>
       <c r="F4">
-        <v>0.3969089984893799</v>
+        <v>0.4061870574951172</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>672220.0240734197</v>
+        <v>312456.0266880436</v>
       </c>
       <c r="D5">
-        <v>672195.9278056892</v>
+        <v>312852.3535279894</v>
       </c>
       <c r="E5">
-        <v>3.5847089715701445e-5</v>
+        <v>-0.0012668175114442456</v>
       </c>
       <c r="F5">
-        <v>0.3969089984893799</v>
+        <v>0.4061870574951172</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>671945.625158384</v>
+        <v>316257.15242668556</v>
       </c>
       <c r="D6">
-        <v>672195.9278058017</v>
+        <v>316209.5931842538</v>
       </c>
       <c r="E6">
-        <v>-0.00037236561107236165</v>
+        <v>0.0001504041732347454</v>
       </c>
       <c r="F6">
-        <v>0.3969089984893799</v>
+        <v>0.4847829341888428</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>489480.54521586397</v>
+        <v>315976.1671913249</v>
       </c>
       <c r="D7">
-        <v>488798.03432242636</v>
+        <v>316209.59318434284</v>
       </c>
       <c r="E7">
-        <v>0.0013963044969763495</v>
+        <v>-0.0007382002255759735</v>
       </c>
       <c r="F7">
-        <v>2.6737167835235596</v>
+        <v>0.4847829341888428</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>489220.99308311933</v>
+        <v>262258.70741633896</v>
       </c>
       <c r="D8">
-        <v>488798.0343219692</v>
+        <v>261936.15637341863</v>
       </c>
       <c r="E8">
-        <v>0.0008653037276159189</v>
+        <v>0.0012314109185464872</v>
       </c>
       <c r="F8">
-        <v>2.6737167835235596</v>
+        <v>1.7667570114135742</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>489119.2912586703</v>
+        <v>262001.1628266445</v>
       </c>
       <c r="D9">
-        <v>488798.03432242625</v>
+        <v>261940.82474900913</v>
       </c>
       <c r="E9">
-        <v>0.0006572386009885533</v>
+        <v>0.00023035003303961704</v>
       </c>
       <c r="F9">
-        <v>2.6737167835235596</v>
+        <v>1.7667570114135742</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>488954.7881053491</v>
+        <v>262114.30898046517</v>
       </c>
       <c r="D10">
-        <v>488798.03432222235</v>
+        <v>261940.82474840974</v>
       </c>
       <c r="E10">
-        <v>0.00032069233532030714</v>
+        <v>0.0006623031450788925</v>
       </c>
       <c r="F10">
-        <v>2.6737167835235596</v>
+        <v>1.7667570114135742</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>488820.3161312476</v>
+        <v>261918.40159785596</v>
       </c>
       <c r="D11">
-        <v>488798.03432210133</v>
+        <v>261940.82475243128</v>
       </c>
       <c r="E11">
-        <v>4.5584899246137795e-5</v>
+        <v>-8.560389391957714e-5</v>
       </c>
       <c r="F11">
-        <v>2.6737167835235596</v>
+        <v>1.7667570114135742</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>488873.6098488222</v>
+        <v>247756.71871129939</v>
       </c>
       <c r="D12">
-        <v>488798.03432233847</v>
+        <v>247430.7871167387</v>
       </c>
       <c r="E12">
-        <v>0.00015461503765759382</v>
+        <v>0.0013172637017353215</v>
       </c>
       <c r="F12">
-        <v>2.6737167835235596</v>
+        <v>2.2325239181518555</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>488815.822187752</v>
+        <v>247471.89353874663</v>
       </c>
       <c r="D13">
-        <v>488798.0343222867</v>
+        <v>247427.08865231628</v>
       </c>
       <c r="E13">
-        <v>3.639103313894616e-5</v>
+        <v>0.00018108318969600008</v>
       </c>
       <c r="F13">
-        <v>2.6737167835235596</v>
+        <v>2.2325239181518555</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>488789.45997214783</v>
+        <v>247577.93040415063</v>
       </c>
       <c r="D14">
-        <v>488798.03432228824</v>
+        <v>247430.78711271743</v>
       </c>
       <c r="E14">
-        <v>-1.7541703399636148e-5</v>
+        <v>0.0005946846516159889</v>
       </c>
       <c r="F14">
-        <v>2.6737167835235596</v>
+        <v>2.2325239181518555</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>539056.8322370582</v>
+        <v>247438.02928896225</v>
       </c>
       <c r="D15">
-        <v>538485.13782781</v>
+        <v>247430.78711274712</v>
       </c>
       <c r="E15">
-        <v>0.0010616716583011722</v>
+        <v>2.9269503199839104e-5</v>
       </c>
       <c r="F15">
-        <v>6.752448081970215</v>
+        <v>2.2325239181518555</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>538801.0945016894</v>
+        <v>225014.780306093</v>
       </c>
       <c r="D16">
-        <v>538485.13782781</v>
+        <v>224726.3207330825</v>
       </c>
       <c r="E16">
-        <v>0.000586750964295772</v>
+        <v>0.0012836038612187924</v>
       </c>
       <c r="F16">
-        <v>6.752448081970215</v>
+        <v>3.0841381549835205</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>538738.2136937304</v>
+        <v>224788.44448262066</v>
       </c>
       <c r="D17">
-        <v>538485.1378278101</v>
+        <v>224726.3207332608</v>
       </c>
       <c r="E17">
-        <v>0.00046997743882247906</v>
+        <v>0.0002764418033328546</v>
       </c>
       <c r="F17">
-        <v>6.752448081970215</v>
+        <v>3.0841381549835205</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
         <v>3</v>
       </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
       <c r="C18">
-        <v>538597.1060246278</v>
+        <v>224847.77740093993</v>
       </c>
       <c r="D18">
-        <v>538485.1378277688</v>
+        <v>224726.32073337786</v>
       </c>
       <c r="E18">
-        <v>0.00020793182391379858</v>
+        <v>0.0005404648069959435</v>
       </c>
       <c r="F18">
-        <v>6.752448081970215</v>
+        <v>3.0841381549835205</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>538514.8606150809</v>
+        <v>224715.2646944207</v>
       </c>
       <c r="D19">
-        <v>538485.1378275657</v>
+        <v>224726.3710052765</v>
       </c>
       <c r="E19">
-        <v>5.519704338576963e-5</v>
+        <v>-4.942148447518076e-5</v>
       </c>
       <c r="F19">
-        <v>6.752448081970215</v>
+        <v>3.0841381549835205</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>538551.9694284853</v>
+        <v>262721.87113124813</v>
       </c>
       <c r="D20">
-        <v>538485.1378275657</v>
+        <v>262467.99678322114</v>
       </c>
       <c r="E20">
-        <v>0.00012411039084424946</v>
+        <v>0.0009672582986819247</v>
       </c>
       <c r="F20">
-        <v>6.752448081970215</v>
+        <v>3.874728202819824</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>538507.7451445014</v>
+        <v>262532.5882503883</v>
       </c>
       <c r="D21">
-        <v>538485.1378275645</v>
+        <v>262467.9967833935</v>
       </c>
       <c r="E21">
-        <v>4.198317715536975e-5</v>
+        <v>0.000246092734300429</v>
       </c>
       <c r="F21">
-        <v>6.752448081970215</v>
+        <v>3.874728202819824</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
         <v>3</v>
       </c>
-      <c r="B22">
-        <v>8</v>
-      </c>
       <c r="C22">
-        <v>538487.3002632805</v>
+        <v>262584.7648465473</v>
       </c>
       <c r="D22">
-        <v>538485.1378275696</v>
+        <v>262467.9967835077</v>
       </c>
       <c r="E22">
-        <v>4.015776033522114e-6</v>
+        <v>0.0004448849553871182</v>
       </c>
       <c r="F22">
-        <v>6.752448081970215</v>
+        <v>3.874728202819824</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
         <v>4</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
       <c r="C23">
-        <v>640440.7799421755</v>
+        <v>262487.75487069314</v>
       </c>
       <c r="D23">
-        <v>639909.6738638595</v>
+        <v>262467.9967883816</v>
       </c>
       <c r="E23">
-        <v>0.0008299703848968292</v>
+        <v>7.527806267166531e-5</v>
       </c>
       <c r="F23">
-        <v>10.372161149978638</v>
+        <v>3.874728202819824</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>640257.450341182</v>
+        <v>288341.3544506496</v>
       </c>
       <c r="D24">
-        <v>639909.6738633888</v>
+        <v>288105.10674516176</v>
       </c>
       <c r="E24">
-        <v>0.0005434774500179853</v>
+        <v>0.0008200052687604533</v>
       </c>
       <c r="F24">
-        <v>10.372161149978638</v>
+        <v>5.399235010147095</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>640150.5427932963</v>
+        <v>288151.61644971604</v>
       </c>
       <c r="D25">
-        <v>639909.6738638594</v>
+        <v>288105.1067453405</v>
       </c>
       <c r="E25">
-        <v>0.00037641082683200817</v>
+        <v>0.00016143311342493356</v>
       </c>
       <c r="F25">
-        <v>10.372161149978638</v>
+        <v>5.399235010147095</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>640015.1756318933</v>
+        <v>288212.25626323756</v>
       </c>
       <c r="D26">
-        <v>639909.6738636453</v>
+        <v>288105.10674545873</v>
       </c>
       <c r="E26">
-        <v>0.00016486978171628653</v>
+        <v>0.0003719112062581307</v>
       </c>
       <c r="F26">
-        <v>10.372161149978638</v>
+        <v>5.399235010147095</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
         <v>4</v>
       </c>
-      <c r="B27">
-        <v>5</v>
-      </c>
       <c r="C27">
-        <v>639916.9338751865</v>
+        <v>288114.6884452835</v>
       </c>
       <c r="D27">
-        <v>639909.6738635217</v>
+        <v>288105.1067456407</v>
       </c>
       <c r="E27">
-        <v>1.1345369450334264e-5</v>
+        <v>3.3257652913725733e-5</v>
       </c>
       <c r="F27">
-        <v>10.372161149978638</v>
+        <v>5.399235010147095</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>639974.6143066214</v>
+        <v>303786.0225930202</v>
       </c>
       <c r="D28">
-        <v>639909.6738635898</v>
+        <v>303524.89988888527</v>
       </c>
       <c r="E28">
-        <v>0.00010148376510627605</v>
+        <v>0.0008603007668581889</v>
       </c>
       <c r="F28">
-        <v>10.372161149978638</v>
+        <v>1.909472942352295</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>639934.6593312694</v>
+        <v>303544.24572519155</v>
       </c>
       <c r="D29">
-        <v>639909.6738635892</v>
+        <v>303524.89988906664</v>
       </c>
       <c r="E29">
-        <v>3.904530389329677e-5</v>
+        <v>6.373722924207327e-5</v>
       </c>
       <c r="F29">
-        <v>10.372161149978638</v>
+        <v>1.909472942352295</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>639912.5224633738</v>
+        <v>408719.43716711004</v>
       </c>
       <c r="D30">
-        <v>639909.673863589</v>
+        <v>408464.8493743316</v>
       </c>
       <c r="E30">
-        <v>4.451565433746457e-6</v>
+        <v>0.0006232795629009748</v>
       </c>
       <c r="F30">
-        <v>10.372161149978638</v>
+        <v>18.579083919525146</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>571158.5957199174</v>
+        <v>408599.3129126359</v>
       </c>
       <c r="D31">
-        <v>570646.9368963202</v>
+        <v>408546.93053379824</v>
       </c>
       <c r="E31">
-        <v>0.0008966294051801899</v>
+        <v>0.00012821630741230672</v>
       </c>
       <c r="F31">
-        <v>20.79766297340393</v>
+        <v>18.579083919525146</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>570960.7665501313</v>
+        <v>408613.6942649278</v>
       </c>
       <c r="D32">
-        <v>570646.936895842</v>
+        <v>408453.94167510996</v>
       </c>
       <c r="E32">
-        <v>0.0005499541555351856</v>
+        <v>0.00039111530950759396</v>
       </c>
       <c r="F32">
-        <v>20.79766297340393</v>
+        <v>18.579083919525146</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>570869.6295212524</v>
+        <v>408551.2421667443</v>
       </c>
       <c r="D33">
-        <v>570646.93689632</v>
+        <v>408547.99704825203</v>
       </c>
       <c r="E33">
-        <v>0.0003902458955507345</v>
+        <v>7.94305324155012e-6</v>
       </c>
       <c r="F33">
-        <v>20.79766297340393</v>
+        <v>18.579083919525146</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>570766.7984295458</v>
+        <v>374441.65732555755</v>
       </c>
       <c r="D34">
-        <v>570646.9368960474</v>
+        <v>374148.2794183813</v>
       </c>
       <c r="E34">
-        <v>0.0002100449958609455</v>
+        <v>0.000784122026786624</v>
       </c>
       <c r="F34">
-        <v>20.79766297340393</v>
+        <v>273.89046001434326</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>570675.3320950439</v>
+        <v>374258.8021581169</v>
       </c>
       <c r="D35">
-        <v>570646.9368960074</v>
+        <v>374204.1498169332</v>
       </c>
       <c r="E35">
-        <v>4.975966258736467e-5</v>
+        <v>0.00014604953261587093</v>
       </c>
       <c r="F35">
-        <v>20.79766297340393</v>
+        <v>273.89046001434326</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>570710.2457187093</v>
+        <v>374270.7222323078</v>
       </c>
       <c r="D36">
-        <v>570646.9368960462</v>
+        <v>374204.14981669624</v>
       </c>
       <c r="E36">
-        <v>0.0001109421930966827</v>
+        <v>0.00017790400144985705</v>
       </c>
       <c r="F36">
-        <v>20.79766297340393</v>
+        <v>273.89046001434326</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>570670.7764498083</v>
+        <v>374204.3740067333</v>
       </c>
       <c r="D37">
-        <v>570646.9368960453</v>
+        <v>374204.1498167376</v>
       </c>
       <c r="E37">
-        <v>4.1776363319494405e-5</v>
+        <v>5.99111463038069e-7</v>
       </c>
       <c r="F37">
-        <v>20.79766297340393</v>
+        <v>273.89046001434326</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>570649.3417028645</v>
+        <v>340222.7957046884</v>
       </c>
       <c r="D38">
-        <v>570646.9368960455</v>
+        <v>340008.5232191703</v>
       </c>
       <c r="E38">
-        <v>4.214176338396781e-6</v>
+        <v>0.0006301973947282757</v>
       </c>
       <c r="F38">
-        <v>20.79766297340393</v>
+        <v>542.7104821205139</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>507023.6262535076</v>
+        <v>340094.3204384523</v>
       </c>
       <c r="D39">
-        <v>506581.68042055116</v>
+        <v>340028.25682509725</v>
       </c>
       <c r="E39">
-        <v>0.0008724078466271693</v>
+        <v>0.00019428859816501942</v>
       </c>
       <c r="F39">
-        <v>7.390162944793701</v>
+        <v>542.7104821205139</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>506851.14458356256</v>
+        <v>340092.90297407046</v>
       </c>
       <c r="D40">
-        <v>506581.68042009196</v>
+        <v>340043.3424274135</v>
       </c>
       <c r="E40">
-        <v>0.0005319263879561295</v>
+        <v>0.00014574773410696437</v>
       </c>
       <c r="F40">
-        <v>7.390162944793701</v>
+        <v>542.7104821205139</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>506773.8391359934</v>
+        <v>340034.8480619734</v>
       </c>
       <c r="D41">
-        <v>506581.6804205509</v>
+        <v>340044.31212531525</v>
       </c>
       <c r="E41">
-        <v>0.0003793242489206047</v>
+        <v>-2.783185309789273e-5</v>
       </c>
       <c r="F41">
-        <v>7.390162944793701</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>6</v>
-      </c>
-      <c r="B42">
-        <v>4</v>
-      </c>
-      <c r="C42">
-        <v>506665.569967128</v>
-      </c>
-      <c r="D42">
-        <v>506581.68042029056</v>
-      </c>
-      <c r="E42">
-        <v>0.0001655992509792795</v>
-      </c>
-      <c r="F42">
-        <v>7.390162944793701</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>6</v>
-      </c>
-      <c r="B43">
-        <v>5</v>
-      </c>
-      <c r="C43">
-        <v>506583.3004792289</v>
-      </c>
-      <c r="D43">
-        <v>506581.68042029056</v>
-      </c>
-      <c r="E43">
-        <v>3.1980211700370336e-6</v>
-      </c>
-      <c r="F43">
-        <v>7.390162944793701</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>7</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>443633.50793706684</v>
-      </c>
-      <c r="D44">
-        <v>442955.22577307094</v>
-      </c>
-      <c r="E44">
-        <v>0.0015312657454534444</v>
-      </c>
-      <c r="F44">
-        <v>142.60381603240967</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>7</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45">
-        <v>443281.3888725396</v>
-      </c>
-      <c r="D45">
-        <v>442955.2257730709</v>
-      </c>
-      <c r="E45">
-        <v>0.0007363342398760628</v>
-      </c>
-      <c r="F45">
-        <v>142.60381603240967</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>7</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46">
-        <v>443258.0403038445</v>
-      </c>
-      <c r="D46">
-        <v>442955.2257730707</v>
-      </c>
-      <c r="E46">
-        <v>0.0006836233396847225</v>
-      </c>
-      <c r="F46">
-        <v>142.60381603240967</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>7</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>443094.51801189536</v>
-      </c>
-      <c r="D47">
-        <v>442955.2257728164</v>
-      </c>
-      <c r="E47">
-        <v>0.0003144612163361208</v>
-      </c>
-      <c r="F47">
-        <v>142.60381603240967</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>7</v>
-      </c>
-      <c r="B48">
-        <v>5</v>
-      </c>
-      <c r="C48">
-        <v>442994.6523432885</v>
-      </c>
-      <c r="D48">
-        <v>442955.22577281605</v>
-      </c>
-      <c r="E48">
-        <v>8.900802649666699e-5</v>
-      </c>
-      <c r="F48">
-        <v>142.60381603240967</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>7</v>
-      </c>
-      <c r="B49">
-        <v>6</v>
-      </c>
-      <c r="C49">
-        <v>443013.6900484408</v>
-      </c>
-      <c r="D49">
-        <v>442955.22577281605</v>
-      </c>
-      <c r="E49">
-        <v>0.00013198687411978508</v>
-      </c>
-      <c r="F49">
-        <v>142.60381603240967</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>7</v>
-      </c>
-      <c r="B50">
-        <v>7</v>
-      </c>
-      <c r="C50">
-        <v>442983.88251340063</v>
-      </c>
-      <c r="D50">
-        <v>442955.2257728161</v>
-      </c>
-      <c r="E50">
-        <v>6.469444069551327e-5</v>
-      </c>
-      <c r="F50">
-        <v>142.60381603240967</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>7</v>
-      </c>
-      <c r="B51">
-        <v>8</v>
-      </c>
-      <c r="C51">
-        <v>442962.44469061226</v>
-      </c>
-      <c r="D51">
-        <v>442955.2257728162</v>
-      </c>
-      <c r="E51">
-        <v>1.6297172662190186e-5</v>
-      </c>
-      <c r="F51">
-        <v>142.60381603240967</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>7</v>
-      </c>
-      <c r="B52">
-        <v>9</v>
-      </c>
-      <c r="C52">
-        <v>442969.33051905996</v>
-      </c>
-      <c r="D52">
-        <v>442955.22577281605</v>
-      </c>
-      <c r="E52">
-        <v>3.184237463122408e-5</v>
-      </c>
-      <c r="F52">
-        <v>142.60381603240967</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>7</v>
-      </c>
-      <c r="B53">
-        <v>10</v>
-      </c>
-      <c r="C53">
-        <v>442956.82879230607</v>
-      </c>
-      <c r="D53">
-        <v>442955.2257728171</v>
-      </c>
-      <c r="E53">
-        <v>3.6189199171962414e-6</v>
-      </c>
-      <c r="F53">
-        <v>142.60381603240967</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>8</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>417320.6044927155</v>
-      </c>
-      <c r="D54">
-        <v>416559.0519806822</v>
-      </c>
-      <c r="E54">
-        <v>0.001828198207222335</v>
-      </c>
-      <c r="F54">
-        <v>304.26114296913147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>8</v>
-      </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <v>416924.6086139542</v>
-      </c>
-      <c r="D55">
-        <v>416559.0519806822</v>
-      </c>
-      <c r="E55">
-        <v>0.0008775625725425029</v>
-      </c>
-      <c r="F55">
-        <v>304.26114296913147</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>8</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56">
-        <v>416904.38685312227</v>
-      </c>
-      <c r="D56">
-        <v>416559.05198068236</v>
-      </c>
-      <c r="E56">
-        <v>0.0008290178086345505</v>
-      </c>
-      <c r="F56">
-        <v>304.26114296913147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>8</v>
-      </c>
-      <c r="B57">
-        <v>4</v>
-      </c>
-      <c r="C57">
-        <v>416709.5322841284</v>
-      </c>
-      <c r="D57">
-        <v>416559.0519804243</v>
-      </c>
-      <c r="E57">
-        <v>0.00036124602979740306</v>
-      </c>
-      <c r="F57">
-        <v>304.26114296913147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>8</v>
-      </c>
-      <c r="B58">
-        <v>5</v>
-      </c>
-      <c r="C58">
-        <v>416602.118404322</v>
-      </c>
-      <c r="D58">
-        <v>416559.05198042345</v>
-      </c>
-      <c r="E58">
-        <v>0.0001033861194320817</v>
-      </c>
-      <c r="F58">
-        <v>304.26114296913147</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>8</v>
-      </c>
-      <c r="B59">
-        <v>6</v>
-      </c>
-      <c r="C59">
-        <v>416632.7466396846</v>
-      </c>
-      <c r="D59">
-        <v>416559.05198042345</v>
-      </c>
-      <c r="E59">
-        <v>0.00017691287444309984</v>
-      </c>
-      <c r="F59">
-        <v>304.26114296913147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>8</v>
-      </c>
-      <c r="B60">
-        <v>7</v>
-      </c>
-      <c r="C60">
-        <v>416592.4401652758</v>
-      </c>
-      <c r="D60">
-        <v>416559.05198042333</v>
-      </c>
-      <c r="E60">
-        <v>8.01523450126821e-5</v>
-      </c>
-      <c r="F60">
-        <v>304.26114296913147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>8</v>
-      </c>
-      <c r="B61">
-        <v>8</v>
-      </c>
-      <c r="C61">
-        <v>416571.6265155182</v>
-      </c>
-      <c r="D61">
-        <v>416559.0519804251</v>
-      </c>
-      <c r="E61">
-        <v>3.0186680695841705e-5</v>
-      </c>
-      <c r="F61">
-        <v>304.26114296913147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>8</v>
-      </c>
-      <c r="B62">
-        <v>9</v>
-      </c>
-      <c r="C62">
-        <v>416578.25095657003</v>
-      </c>
-      <c r="D62">
-        <v>416559.05198042514</v>
-      </c>
-      <c r="E62">
-        <v>4.6089446510924194e-5</v>
-      </c>
-      <c r="F62">
-        <v>304.26114296913147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>8</v>
-      </c>
-      <c r="B63">
-        <v>10</v>
-      </c>
-      <c r="C63">
-        <v>416562.9835062654</v>
-      </c>
-      <c r="D63">
-        <v>416559.0519804271</v>
-      </c>
-      <c r="E63">
-        <v>9.438099639364093e-6</v>
-      </c>
-      <c r="F63">
-        <v>304.26114296913147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>10</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>491486.8653096427</v>
-      </c>
-      <c r="D64">
-        <v>490635.28244941385</v>
-      </c>
-      <c r="E64">
-        <v>0.0017356739123559452</v>
-      </c>
-      <c r="F64">
-        <v>1626.937684059143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>10</v>
-      </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-      <c r="C65">
-        <v>491062.4380007795</v>
-      </c>
-      <c r="D65">
-        <v>490637.18864363065</v>
-      </c>
-      <c r="E65">
-        <v>0.0008667287498618575</v>
-      </c>
-      <c r="F65">
-        <v>1626.937684059143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>10</v>
-      </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66">
-        <v>491048.90271163126</v>
-      </c>
-      <c r="D66">
-        <v>490635.2824494137</v>
-      </c>
-      <c r="E66">
-        <v>0.000843030000110596</v>
-      </c>
-      <c r="F66">
-        <v>1626.937684059143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>10</v>
-      </c>
-      <c r="B67">
-        <v>4</v>
-      </c>
-      <c r="C67">
-        <v>490833.1526999452</v>
-      </c>
-      <c r="D67">
-        <v>490635.2824494137</v>
-      </c>
-      <c r="E67">
-        <v>0.000403293969287526</v>
-      </c>
-      <c r="F67">
-        <v>1626.937684059143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>10</v>
-      </c>
-      <c r="B68">
-        <v>5</v>
-      </c>
-      <c r="C68">
-        <v>490708.40150532953</v>
-      </c>
-      <c r="D68">
-        <v>490635.2824543174</v>
-      </c>
-      <c r="E68">
-        <v>0.0001490293373244318</v>
-      </c>
-      <c r="F68">
-        <v>1626.937684059143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>10</v>
-      </c>
-      <c r="B69">
-        <v>6</v>
-      </c>
-      <c r="C69">
-        <v>490725.0347002264</v>
-      </c>
-      <c r="D69">
-        <v>490635.2824543174</v>
-      </c>
-      <c r="E69">
-        <v>0.0001829306801175011</v>
-      </c>
-      <c r="F69">
-        <v>1626.937684059143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>10</v>
-      </c>
-      <c r="B70">
-        <v>7</v>
-      </c>
-      <c r="C70">
-        <v>490667.64327734604</v>
-      </c>
-      <c r="D70">
-        <v>490637.1886435745</v>
-      </c>
-      <c r="E70">
-        <v>6.207159684685499e-5</v>
-      </c>
-      <c r="F70">
-        <v>1626.937684059143</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>10</v>
-      </c>
-      <c r="B71">
-        <v>8</v>
-      </c>
-      <c r="C71">
-        <v>490636.00385377806</v>
-      </c>
-      <c r="D71">
-        <v>490637.1886435888</v>
-      </c>
-      <c r="E71">
-        <v>-2.4147982219052507e-6</v>
-      </c>
-      <c r="F71">
-        <v>1626.937684059143</v>
+        <v>542.7104821205139</v>
       </c>
     </row>
   </sheetData>
